--- a/Test Open Xml/testdata/testsetcellvalue2darrrealfloat.xlsx
+++ b/Test Open Xml/testdata/testsetcellvalue2darrrealfloat.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R5bac73d92ec34d6c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R9176665bc0f54b3b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -39,25 +39,25 @@
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row r="2">
-      <x:c r="B2" t="str">
-        <x:v>a</x:v>
+      <x:c r="B2" t="n">
+        <x:v>1.10000000</x:v>
       </x:c>
-      <x:c r="C2" t="str">
-        <x:v>b</x:v>
+      <x:c r="C2" t="n">
+        <x:v>2.00000000</x:v>
       </x:c>
-      <x:c r="D2" t="str">
-        <x:v>c</x:v>
+      <x:c r="D2" t="n">
+        <x:v>2.90000000</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="B3" t="str">
-        <x:v>d</x:v>
+      <x:c r="B3" t="n">
+        <x:v>4.00000000</x:v>
       </x:c>
-      <x:c r="C3" t="str">
-        <x:v>e</x:v>
+      <x:c r="C3" t="n">
+        <x:v>5.00000000</x:v>
       </x:c>
-      <x:c r="D3" t="str">
-        <x:v>f</x:v>
+      <x:c r="D3" t="n">
+        <x:v>6.10000000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
